--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44838</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44531</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45607</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45838.63350694445</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>46049.61166666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>45733.37802083333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44370</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45583</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45642</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45980.54716435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45932</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>44635</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>46013.90342592593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>46014.34618055556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44655</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44770</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44460.49819444444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44648</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44264</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45197</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45699</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45175</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45428</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>44475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44808.83962962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44460.4965625</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44592</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>45629.38945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>45838.49210648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>45936.39483796297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45940.35274305556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44650</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45642.91010416667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44493</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>45068</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44984.53493055556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44243</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44243</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>44358</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44361.36863425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44358.42180555555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44804</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44599.93965277778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44799.39659722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44335.30454861111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44256</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44379</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44399</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44475.41234953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44662</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44498.32052083333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44594</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44566.64234953704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44342.42895833333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44599</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44868.66231481481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>44307.4647800926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44839.35453703703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44650</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44433</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44396</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44498.31579861111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>44740.61030092592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44853.36773148148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>44882.57833333333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>44882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44882.58922453703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>44326.55438657408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>44882.58734953704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44544</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44621.83521990741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44405</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44488</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44371.57929398148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44384.58954861111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>44431</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44376</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44264</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44446.31717592593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44446.32383101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44594</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44452.48234953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44687</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44483</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>44284</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>44867</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44322.62567129629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>44322</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44712</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44516.55710648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44322.66199074074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>44488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44379</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>44711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44501.3636574074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44537</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>44446</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44533</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44533</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44701.37635416666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44363</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>44324</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44652</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44550</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44825</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44238</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44428.49829861111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44446.32172453704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>44292</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44483</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44544</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44327</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44531</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44403</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44574.63291666667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44427</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44623</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44452.47320601852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44475</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44754</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>44483</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44432.36793981482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44547</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44452</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44872</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44882.59050925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44622.34517361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>45039.56868055555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>45037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>45688.41748842593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>45387</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>45095</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>45393</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45727.55393518518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>45617.70402777778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45007</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>45093</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>45307.68342592593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>45572.62396990741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>45572.62671296296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>45201.44359953704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>45071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>45698</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>45698.60329861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45751.46481481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>45583</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>45260</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>45487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>45110</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>45679</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>45093</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45281.34885416667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44902</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44985</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>45457</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45243.61638888889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45371.54296296297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45371.54785879629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45177.36246527778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45376</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>45238.30291666667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45320.57275462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>45629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45672</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44295.36819444445</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44454</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>45704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44323.64538194444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45817.46061342592</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45187</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45044</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>45375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>45799.40452546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>45168</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>45630.37989583334</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45798</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>45572</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44937.38175925926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45800</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45751.47630787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45803.45292824074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45800.48400462963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45800.48954861111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44358.42668981481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>45665</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45272.44296296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44754</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>45112</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>45792.6830787037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>45405.71587962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45698.59813657407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45095</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44258</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45810.68387731481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45119.78493055556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>45385.67703703704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45002.4803125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45720.37982638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45560</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45813.39135416667</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45813.39403935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45891</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45253</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>45813.39688657408</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>45813.39833333333</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>44566</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>45711.75097222222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44888</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45559</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45616.70063657407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>44654.66222222222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45819.38116898148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45898.66893518518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45533.65609953704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>44649</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>44286.61825231482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>45833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>44888</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>45408</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45877</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45877</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45877</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45877</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45904.43988425926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45908.35305555556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45432</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44855</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45824.3978587963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45822.50921296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45908.57747685185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45821.40476851852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45908.3558912037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45411</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45386.64233796296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45908.35013888889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45757.5965625</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45911</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45911</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44896</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45751.4693287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44952.40619212963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45912.33145833333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45582.28591435185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45582.29100694445</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45386</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44484</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45665.70130787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45917.45476851852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45833</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45553.47413194444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45635</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45833.47877314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45925.26621527778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44984</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45260</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>45925.27075231481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>45833.68950231482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>45049</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>45833</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>45520</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>45834.60486111111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>45929.34868055556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45622</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45929.65858796296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45834.59217592593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>45114.45199074074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45302</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45838.60596064815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45615.30916666667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44805</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44805</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45838.60730324074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44413</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45836.51961805556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45446</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44945.66861111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45936.49230324074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44904</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>45936.45883101852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>45936.3972337963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45160</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45936.37981481481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45936.37505787037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44896</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45937.26784722223</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45937.27710648148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44858</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44525.86020833333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45938.37185185185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45260.35516203703</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45062</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45798</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45841.78270833333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45841.77523148148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44994.42158564815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44600</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45944.43614583334</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45560</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45944.59649305556</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45299.66027777778</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>45944.60699074074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45944.60290509259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45196</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45944.43819444445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45944.3765162037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45945.42152777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44816.39305555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45847.96275462963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45524</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44949</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45203.46956018519</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45862</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45861.84675925926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45952.46894675926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45869.55634259259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45729.83532407408</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44503</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44876.35252314815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44607.44862268519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44634.37664351852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44519</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44589</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45785.67917824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45874.8867824074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44959</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45196</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45243</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44452.47792824074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45260</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45260</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>45201</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>45299.63355324074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>45958.48815972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45877.63131944444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45880.45831018518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>45880.46190972222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>45366</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45964.90199074074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45880.61798611111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45881</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45880</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45462</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44938.39040509259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44459</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45971.46986111111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45141.35248842592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45141.35356481482</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45972</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45972</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45972</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45751</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45974.68930555556</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45520</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45618.32447916667</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44493</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45520.60563657407</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45974.54046296296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45974.54848379629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45978.51690972222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45978.520625</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45978.52273148148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45261.52961805555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45729.53502314815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45978.43060185185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45734.60262731482</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45645.27269675926</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45099.55622685186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44973</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>45978.52508101852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>46020.36252314815</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45978.52653935185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45222.69689814815</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45980.54451388889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>45175</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>45981</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>45981.62398148148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>45981.62859953703</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>45981.63342592592</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>45981.6193287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>45981.62599537037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>45709</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         <v>45986</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>45106.33273148148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26917,7 +26917,7 @@
         <v>45987</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>45946</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27031,7 +27031,7 @@
         <v>45986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>44686.55461805555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>45681.71569444444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>45534.32197916666</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>45987</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45103</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45288</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45641</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44533.62737268519</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>45387.89773148148</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>45320.61056712963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>46031.51366898148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>45148.58450231481</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>46029</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>45548</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44666</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45615.3053125</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44426</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45175</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>45382</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>45713.45155092593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>46034.14719907408</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44459</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>45061</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44547.31275462963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45993.47085648148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45092.54097222222</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45763</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45600</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45995</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>45932</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>45932</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44544</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>45755.63755787037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>45761.64418981481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44629</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44985</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45308</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>45751.44196759259</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45111.69322916667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44672.44399305555</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>45217</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44573.54010416667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>45617.3077662037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>45743.32460648148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44245</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>46003.58931712963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>46003.59453703704</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>46044.64020833333</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>46002.4753125</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>45382</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>46036</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45635</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45769.68368055556</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>46003.45577546296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>46002</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44379</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>46044.37738425926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45721.67840277778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45721.68288194444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45531</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>45630</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         <v>45751.45800925926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30771,7 +30771,7 @@
         <v>45279.35721064815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         <v>45727.54585648148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45646.46813657408</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30947,7 +30947,7 @@
         <v>46049.58965277778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>44727.59932870371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>46049.58324074074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>46049.61491898148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>45546</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>46030</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>44426</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45096</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>45575.84795138889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31460,7 +31460,7 @@
         <v>46051.48394675926</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31517,7 +31517,7 @@
         <v>46002</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31574,7 +31574,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31631,7 +31631,7 @@
         <v>45387.87537037037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>46009.87075231481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>46009.87752314815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>46010.40381944444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44873</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44295.42576388889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45240.74755787037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>46055</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45219</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44493</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45273.89483796297</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44887</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45041.89753472222</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44594</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45474.64391203703</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45581</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45767.39765046296</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>45068</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44518</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>44461.37099537037</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>44578.38391203704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45581.37975694444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>45120</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>45630</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>44995.87127314815</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45379.406875</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45187</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45763.67331018519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45154</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33304,7 +33304,7 @@
         <v>45288</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>44446</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45175</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45175</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44952.65668981482</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45546</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45252</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>44593.62443287037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44945.68373842593</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44491</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45035</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>45035</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45723.25569444444</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45705</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>45260</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>45218.73681712963</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44595</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45196.39324074074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45187</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45630</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45707</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45379.3791087963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>45741.60081018518</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44354.41733796296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44354</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45450</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>44403.5144212963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>45370</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>45258.3112962963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>45366.4970949074</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45616</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44566</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45099</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45168.56642361111</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44846.36684027778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44698</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44708</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45623</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45645.31188657408</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44986.8728587963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>45565</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>45012.04369212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>45222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44530</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>45163.59815972222</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44715</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>45163.54841435186</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>45616.6689699074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44902.26584490741</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>45749.56928240741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>45184.56159722222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44356</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>45618</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>45187</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36655,7 +36655,7 @@
         <v>45260</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36712,7 +36712,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36769,7 +36769,7 @@
         <v>44999</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>45572.62533564815</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>45204</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>45049.45099537037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>45601</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>45028</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>45051</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44981</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>45390</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>45390</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>45688</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>45258.30541666667</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>44634.37144675926</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>45524.92658564815</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>45693</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>45404</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>45359</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>45391.34064814815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>45308</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44686.55104166667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>45629.61855324074</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44896</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38038,7 +38038,7 @@
         <v>45636</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38095,7 +38095,7 @@
         <v>45641</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38152,7 +38152,7 @@
         <v>45641</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38209,7 +38209,7 @@
         <v>45107</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38266,7 +38266,7 @@
         <v>45261.52292824074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>45300.47158564815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45513</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45131.49295138889</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45258.57282407407</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45751.45363425926</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45645</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45572.62758101852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45175</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38851,7 +38851,7 @@
         <v>44893.62418981481</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38908,7 +38908,7 @@
         <v>45767.39503472222</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38965,7 +38965,7 @@
         <v>45118</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         <v>45771.95877314815</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44746.53506944444</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45299.66635416666</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>44818.46552083334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45700.38412037037</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>45700.38554398148</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>45386</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>45306</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>45775.5934837963</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45177.35716435185</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44475</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45702</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39716,7 +39716,7 @@
         <v>45174</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39773,7 +39773,7 @@
         <v>45736</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39830,7 +39830,7 @@
         <v>45229</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45411</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45607</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45713</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45379</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45616</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>45782.65295138889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>45782.53261574074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>45782.53278935186</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>45784.3707175926</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>45784.32915509259</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>45784.3387962963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45784.34284722222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45784.3278587963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45786.70331018518</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>45789.39423611111</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45553.33490740741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45789.54835648148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45789.46363425926</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40938,7 +40938,7 @@
         <v>45466</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45790.32454861111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>45356.64559027777</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>44446</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>44812</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45793.3491087963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45769</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45621</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45642</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         <v>45796.60010416667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44838</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44531</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45607</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45838.63350694445</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>46049.61166666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>45733.37802083333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44370</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45583</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45642</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45980.54716435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45932</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>44635</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>46013.90342592593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>46014.34618055556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44655</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44770</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44460.49819444444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44648</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44264</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45197</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45699</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45175</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45428</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>44475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44808.83962962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44460.4965625</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44592</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>45629.38945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>45838.49210648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>45936.39483796297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45940.35274305556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44650</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45642.91010416667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44493</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>45068</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44984.53493055556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44243</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44243</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>44358</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44361.36863425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44358.42180555555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44804</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44599.93965277778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44799.39659722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44335.30454861111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44256</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44379</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44399</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44475.41234953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44662</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44498.32052083333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44594</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44566.64234953704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44342.42895833333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44599</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44868.66231481481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>44307.4647800926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44839.35453703703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44650</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44433</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44396</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44498.31579861111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>44740.61030092592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44853.36773148148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>44882.57833333333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>44882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44882.58922453703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>44326.55438657408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>44882.58734953704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44544</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44621.83521990741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44405</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44488</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44371.57929398148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44384.58954861111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>44431</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44376</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44264</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44446.31717592593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44446.32383101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44594</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44452.48234953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44687</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44483</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>44284</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>44867</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44322.62567129629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>44322</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44712</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44516.55710648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44322.66199074074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>44488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44379</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>44711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44501.3636574074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44537</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>44446</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44533</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44533</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44701.37635416666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44363</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>44324</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44652</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44550</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44825</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44238</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44428.49829861111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44446.32172453704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>44292</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44483</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44544</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44327</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44531</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44403</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44574.63291666667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44427</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44623</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44452.47320601852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44475</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44754</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>44483</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44432.36793981482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44547</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44452</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44872</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44882.59050925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44622.34517361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>45039.56868055555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>45037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>45688.41748842593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>45387</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>45095</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>45393</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45727.55393518518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>45617.70402777778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45007</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>45093</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>45307.68342592593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>45572.62396990741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>45572.62671296296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>45201.44359953704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>45071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>45698</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>45698.60329861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45751.46481481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>45583</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>45260</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>45487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>45110</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>45679</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>45093</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45281.34885416667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44902</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44985</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>45457</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45243.61638888889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45371.54296296297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45371.54785879629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45177.36246527778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45376</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>45238.30291666667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45320.57275462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>45629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45672</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44295.36819444445</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44454</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>45704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44323.64538194444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45817.46061342592</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45187</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45044</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>45375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>45799.40452546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>45168</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>45630.37989583334</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45798</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>45572</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44937.38175925926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45800</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45751.47630787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45803.45292824074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45800.48400462963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45800.48954861111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44358.42668981481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>45665</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45272.44296296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44754</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>45112</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>45792.6830787037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>45405.71587962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45698.59813657407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45095</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44258</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45810.68387731481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45119.78493055556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>45385.67703703704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45002.4803125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45720.37982638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45560</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45813.39135416667</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45813.39403935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45891</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45253</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>45813.39688657408</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>45813.39833333333</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>44566</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>45711.75097222222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44888</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45559</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45616.70063657407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>44654.66222222222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45819.38116898148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45898.66893518518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45533.65609953704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>44649</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>44286.61825231482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>45833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>44888</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>45408</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45877</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45877</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45877</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45877</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45904.43988425926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45908.35305555556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45432</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44855</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45824.3978587963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45822.50921296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45908.57747685185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45821.40476851852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45908.3558912037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45411</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45386.64233796296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45908.35013888889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45757.5965625</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45911</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45911</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44896</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45751.4693287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44952.40619212963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45912.33145833333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45582.28591435185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45582.29100694445</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45386</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44484</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45665.70130787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45917.45476851852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45833</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45553.47413194444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45635</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45833.47877314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45925.26621527778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44984</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45260</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>45925.27075231481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>45833.68950231482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>45049</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>45833</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>45520</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>45834.60486111111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>45929.34868055556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45622</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45929.65858796296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45834.59217592593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>45114.45199074074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45302</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45838.60596064815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45615.30916666667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44805</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44805</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45838.60730324074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44413</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45836.51961805556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45446</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44945.66861111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45936.49230324074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44904</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>45936.45883101852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>45936.3972337963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45160</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45936.37981481481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45936.37505787037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44896</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45937.26784722223</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45937.27710648148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44858</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44525.86020833333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45938.37185185185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45260.35516203703</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45062</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45798</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45841.78270833333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45841.77523148148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44994.42158564815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44600</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45944.43614583334</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45560</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45944.59649305556</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45299.66027777778</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>45944.60699074074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45944.60290509259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45196</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45944.43819444445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45944.3765162037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45945.42152777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44816.39305555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45847.96275462963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45524</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44949</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45203.46956018519</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45862</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45861.84675925926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45952.46894675926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45869.55634259259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45729.83532407408</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44503</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44876.35252314815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44607.44862268519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44634.37664351852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44519</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44589</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45785.67917824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45874.8867824074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44959</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45196</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45243</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44452.47792824074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45260</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45260</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>45201</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>45299.63355324074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>45958.48815972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45877.63131944444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45880.45831018518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>45880.46190972222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>45366</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45964.90199074074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45880.61798611111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45881</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45880</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45462</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44938.39040509259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44459</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45971.46986111111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45141.35248842592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45141.35356481482</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45972</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45972</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45972</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45751</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45974.68930555556</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45520</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45618.32447916667</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44493</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45520.60563657407</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45974.54046296296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45974.54848379629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45978.51690972222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45978.520625</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45978.52273148148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45261.52961805555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45729.53502314815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45978.43060185185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45734.60262731482</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45645.27269675926</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45099.55622685186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44973</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>45978.52508101852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>46020.36252314815</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45978.52653935185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45222.69689814815</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45980.54451388889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>45175</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>45981</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>45981.62398148148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>45981.62859953703</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>45981.63342592592</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>45981.6193287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>45981.62599537037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>45709</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         <v>45986</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>45106.33273148148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26917,7 +26917,7 @@
         <v>45987</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>45946</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27031,7 +27031,7 @@
         <v>45986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>44686.55461805555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>45681.71569444444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>45534.32197916666</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>45987</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45103</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45288</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45641</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44533.62737268519</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>45387.89773148148</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>45320.61056712963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>46031.51366898148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>45148.58450231481</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>46029</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>45548</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44666</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45615.3053125</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44426</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45175</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>45382</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>45713.45155092593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>46034.14719907408</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44459</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>45061</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44547.31275462963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45993.47085648148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45092.54097222222</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45763</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45600</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45995</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>45932</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>45932</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44544</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>45755.63755787037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>45761.64418981481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44629</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44985</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45308</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>45751.44196759259</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45111.69322916667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44672.44399305555</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>45217</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44573.54010416667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>45617.3077662037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>45743.32460648148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44245</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>46003.58931712963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>46003.59453703704</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>46044.64020833333</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>46002.4753125</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>45382</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>46036</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45635</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45769.68368055556</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>46003.45577546296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>46002</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44379</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>46044.37738425926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45721.67840277778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45721.68288194444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45531</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>45630</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         <v>45751.45800925926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30771,7 +30771,7 @@
         <v>45279.35721064815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         <v>45727.54585648148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45646.46813657408</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30947,7 +30947,7 @@
         <v>46049.58965277778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>44727.59932870371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>46049.58324074074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>46049.61491898148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>45546</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>46030</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>44426</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45096</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>45575.84795138889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31460,7 +31460,7 @@
         <v>46051.48394675926</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31517,7 +31517,7 @@
         <v>46002</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31574,7 +31574,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31631,7 +31631,7 @@
         <v>45387.87537037037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>46009.87075231481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>46009.87752314815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>46010.40381944444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44873</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44295.42576388889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45240.74755787037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>46055</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45219</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44493</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45273.89483796297</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44887</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45041.89753472222</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44594</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45474.64391203703</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45581</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45767.39765046296</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>45068</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44518</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>44461.37099537037</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>44578.38391203704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45581.37975694444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>45120</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>45630</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>44995.87127314815</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45379.406875</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45187</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45763.67331018519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45154</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33304,7 +33304,7 @@
         <v>45288</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>44446</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45175</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45175</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44952.65668981482</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45546</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45252</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>44593.62443287037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44945.68373842593</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44491</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45035</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>45035</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45723.25569444444</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45705</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>45260</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>45218.73681712963</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44595</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45196.39324074074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45187</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45630</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45707</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45379.3791087963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>45741.60081018518</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44354.41733796296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44354</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45450</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>44403.5144212963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>45370</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>45258.3112962963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>45366.4970949074</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45616</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44566</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45099</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45168.56642361111</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44846.36684027778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44698</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44708</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45623</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45645.31188657408</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44986.8728587963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>45565</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>45012.04369212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>45222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44530</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>45163.59815972222</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44715</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>45163.54841435186</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>45616.6689699074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44902.26584490741</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>45749.56928240741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>45184.56159722222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44356</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>45618</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>45187</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36655,7 +36655,7 @@
         <v>45260</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36712,7 +36712,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36769,7 +36769,7 @@
         <v>44999</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>45572.62533564815</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>45204</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>45049.45099537037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>45601</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>45028</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>45051</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44981</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>45390</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>45390</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>45688</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>45258.30541666667</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>44634.37144675926</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>45524.92658564815</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>45693</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>45404</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>45359</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>45391.34064814815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>45308</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44686.55104166667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>45629.61855324074</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44896</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38038,7 +38038,7 @@
         <v>45636</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38095,7 +38095,7 @@
         <v>45641</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38152,7 +38152,7 @@
         <v>45641</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38209,7 +38209,7 @@
         <v>45107</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38266,7 +38266,7 @@
         <v>45261.52292824074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>45300.47158564815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45513</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45131.49295138889</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45258.57282407407</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45751.45363425926</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45645</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45572.62758101852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45175</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38851,7 +38851,7 @@
         <v>44893.62418981481</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38908,7 +38908,7 @@
         <v>45767.39503472222</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38965,7 +38965,7 @@
         <v>45118</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         <v>45771.95877314815</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44746.53506944444</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45299.66635416666</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>44818.46552083334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45700.38412037037</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>45700.38554398148</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>45386</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>45306</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>45775.5934837963</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45177.35716435185</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44475</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45702</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39716,7 +39716,7 @@
         <v>45174</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39773,7 +39773,7 @@
         <v>45736</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39830,7 +39830,7 @@
         <v>45229</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45411</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45607</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45713</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45379</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45616</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>45782.65295138889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>45782.53261574074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>45782.53278935186</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>45784.3707175926</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>45784.32915509259</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>45784.3387962963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45784.34284722222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45784.3278587963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45786.70331018518</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>45789.39423611111</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45553.33490740741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45789.54835648148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45789.46363425926</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40938,7 +40938,7 @@
         <v>45466</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45790.32454861111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>45356.64559027777</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>44446</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>44812</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45793.3491087963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45769</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45621</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45642</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         <v>45796.60010416667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
